--- a/biology/Botanique/Triticum_turgidum/Triticum_turgidum.xlsx
+++ b/biology/Botanique/Triticum_turgidum/Triticum_turgidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Triticum turgidum est une espèce de plantes monocotylédones de famille des Poaceae, sous-famille des Pooideae, dont on connaît plusieurs sous-espèces cultivées, notamment le blé dur (Triticum turgidum subsp. durum). Ce sont des blés tétraploïdes (2n = 28) de génome AABB[2].
-Pour certains auteurs, il existe de nombreuses sous-espèces[2] telles que :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Triticum turgidum est une espèce de plantes monocotylédones de famille des Poaceae, sous-famille des Pooideae, dont on connaît plusieurs sous-espèces cultivées, notamment le blé dur (Triticum turgidum subsp. durum). Ce sont des blés tétraploïdes (2n = 28) de génome AABB.
+Pour certains auteurs, il existe de nombreuses sous-espèces telles que :
 Amidonnier (Triticum turgidum L. subsp. dicoccum),
 Blé dur (Triticum turgidum L. subsp. durum),
 Blé poulard, gros blé, (Triticum turgidum L. subsp. turgidum),
@@ -525,14 +537,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des sous-espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (1 juillet 2017)[3] :
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (1 juillet 2017) :
 Triticum turgidum subsp. dicoccum (Schrank ex Schübl.) Thell., Naturwiss. Wochenschr. (1918)
 Triticum turgidum subsp. durum (Desf.) Husn. (1899)
 Triticum turgidum subsp. polonicum (L.) Thell., Naturwiss. Wochenschr., n.f. (1918)
-Triticum turgidum subsp. turgidum
-Synonymes
-Selon Catalogue of Life                                   (1er juillet 2017)[4] :
+Triticum turgidum subsp. turgidum</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Triticum_turgidum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticum_turgidum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1er juillet 2017) :
 Gigachilon polonicum subsp. turgidum (L.) Á.Löve
 Triticum aestivum subsp. turgidum (L.) Domin
 Triticum aestivum var. turgidum (L.) Fiori
